--- a/data/DMM  Governance/DMM  Governance20190101.xlsx
+++ b/data/DMM  Governance/DMM  Governance20190101.xlsx
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
